--- a/Refs faltantes.xlsx
+++ b/Refs faltantes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvargasp\Documents\Archivos MAAJI\E-commerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FE7567-8637-460F-870B-257918E2DAB5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C86AEB-777E-42B0-B049-3ED8AB520DAC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="24645" windowHeight="14160" xr2:uid="{D7F2EAAB-A8E4-477D-B957-6BA6369C0F51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="145">
   <si>
     <t>1760ASB08</t>
   </si>
@@ -69,9 +69,6 @@
     <t>1484CSD01</t>
   </si>
   <si>
-    <t>1846CSD01</t>
-  </si>
-  <si>
     <t>1488CSD02</t>
   </si>
   <si>
@@ -457,13 +454,19 @@
   </si>
   <si>
     <t>Falta online description</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>Inventario y lista de precios (XS, XL)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,16 +474,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +485,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,9 +603,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,6 +614,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,10 +642,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,1201 +969,1222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0440223A-5661-4E11-8253-795B6766C2D9}">
-  <dimension ref="A2:F128"/>
+  <dimension ref="A2:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="4" t="s">
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="4" t="s">
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="4" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="4" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="5" t="s">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="5" t="s">
+      <c r="D10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="9"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="18"/>
+      <c r="B54" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="18"/>
+      <c r="B55" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="18"/>
+      <c r="B56" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="9"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="7" t="s">
+      <c r="A60" s="18"/>
+      <c r="B60" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="7" t="s">
+      <c r="A62" s="18"/>
+      <c r="B62" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="7" t="s">
+      <c r="A63" s="18"/>
+      <c r="B63" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="7" t="s">
+      <c r="A64" s="18"/>
+      <c r="B64" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="7" t="s">
+      <c r="A65" s="18"/>
+      <c r="B65" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="7" t="s">
+      <c r="A66" s="18"/>
+      <c r="B66" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="7" t="s">
+      <c r="A67" s="18"/>
+      <c r="B67" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="7" t="s">
+      <c r="A68" s="18"/>
+      <c r="B68" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="7" t="s">
+      <c r="A69" s="18"/>
+      <c r="B69" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="7" t="s">
+      <c r="A70" s="18"/>
+      <c r="B70" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="7" t="s">
+      <c r="A71" s="18"/>
+      <c r="B71" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="7" t="s">
+      <c r="A72" s="18"/>
+      <c r="B72" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="8" t="s">
+      <c r="A74" s="18"/>
+      <c r="B74" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
+      <c r="C74" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="7" t="s">
+      <c r="A76" s="18"/>
+      <c r="B76" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="18"/>
+      <c r="B77" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="7" t="s">
+      <c r="A78" s="18"/>
+      <c r="B78" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="7" t="s">
+      <c r="A79" s="18"/>
+      <c r="B79" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="7" t="s">
+      <c r="A80" s="18"/>
+      <c r="B80" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="7" t="s">
+      <c r="A81" s="18"/>
+      <c r="B81" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="7" t="s">
+      <c r="A82" s="18"/>
+      <c r="B82" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
+      <c r="A83" s="18"/>
       <c r="B83" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="8" t="s">
+      <c r="A84" s="18"/>
+      <c r="B84" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
+      <c r="C84" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="6" t="s">
+      <c r="A85" s="18"/>
+      <c r="B85" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="18"/>
+      <c r="B87" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="18"/>
+      <c r="B88" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
+      <c r="B89" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
+      <c r="B90" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="18"/>
+      <c r="B91" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="18"/>
+      <c r="B92" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="18"/>
+      <c r="B93" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="18"/>
+      <c r="B94" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="18"/>
+      <c r="B95" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="18"/>
+      <c r="B96" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="18"/>
+      <c r="B97" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
+      <c r="B98" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="18"/>
+      <c r="B99" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="18"/>
+      <c r="B100" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="18"/>
+      <c r="B101" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="18"/>
+      <c r="B102" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="18"/>
+      <c r="B103" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="18"/>
+      <c r="B104" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="18"/>
+      <c r="B105" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="18"/>
+      <c r="B106" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="18"/>
+      <c r="B107" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="18"/>
+      <c r="B108" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="18"/>
+      <c r="B109" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="18"/>
+      <c r="B110" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="18"/>
+      <c r="B111" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="18"/>
+      <c r="B112" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="18"/>
+      <c r="B113" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="18"/>
+      <c r="B114" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="18"/>
+      <c r="B115" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="18"/>
+      <c r="B116" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="18"/>
+      <c r="B117" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="18"/>
+      <c r="B118" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="18"/>
+      <c r="B119" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="9"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="B89" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
-      <c r="B90" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
-      <c r="B91" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="B95" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="B96" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-      <c r="B98" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="B99" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
-      <c r="B100" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="B105" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="B108" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="B113" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-      <c r="B116" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
-      <c r="B117" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
-      <c r="B118" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="15"/>
-      <c r="B119" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
-      <c r="B120" s="17" t="s">
+      <c r="A120" s="19"/>
+      <c r="B120" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" t="s">
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
+      <c r="B122" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
+      <c r="B123" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D123" s="12"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="12"/>
+      <c r="B124" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="12"/>
+      <c r="B125" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+      <c r="B126" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+      <c r="B127" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D127" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="16"/>
-      <c r="B121" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="9"/>
-      <c r="B123" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
-      <c r="B124" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D124" s="9"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
-      <c r="B125" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
-      <c r="B126" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
-      <c r="B127" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
-      <c r="B128" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D128" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D122:D127"/>
-    <mergeCell ref="A122:A128"/>
+    <mergeCell ref="E27:E120"/>
+    <mergeCell ref="C27:C46"/>
+    <mergeCell ref="C47:C57"/>
+    <mergeCell ref="D27:D57"/>
+    <mergeCell ref="C58:C73"/>
+    <mergeCell ref="C74:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D58:D85"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="D121:D126"/>
+    <mergeCell ref="A121:A127"/>
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="C87:C108"/>
-    <mergeCell ref="C109:C119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D87:D121"/>
+    <mergeCell ref="C86:C107"/>
+    <mergeCell ref="C108:C118"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D86:D120"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D12:D27"/>
-    <mergeCell ref="A10:A121"/>
-    <mergeCell ref="E28:E121"/>
-    <mergeCell ref="C28:C47"/>
-    <mergeCell ref="C48:C58"/>
-    <mergeCell ref="D28:D58"/>
-    <mergeCell ref="C59:C74"/>
-    <mergeCell ref="C75:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D59:D86"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D12:D26"/>
+    <mergeCell ref="A10:A120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>